--- a/data/input/absenteeism_data_26.xlsx
+++ b/data/input/absenteeism_data_26.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>84905</v>
+        <v>49974</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>André da Cruz</t>
+          <t>Sra. Ana Laura Porto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45078</v>
+        <v>45104</v>
       </c>
       <c r="G2" t="n">
-        <v>5534.56</v>
+        <v>7763.96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9135</v>
+        <v>53610</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Heitor Vieira</t>
+          <t>Emanuella da Costa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="G3" t="n">
-        <v>12377.19</v>
+        <v>2933.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98463</v>
+        <v>83063</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dr. Enrico Silveira</t>
+          <t>Levi Ramos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,27 +552,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45093</v>
+        <v>45103</v>
       </c>
       <c r="G4" t="n">
-        <v>4311.16</v>
+        <v>10538.33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>68518</v>
+        <v>22261</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sarah Silveira</t>
+          <t>Enzo Farias</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,27 +581,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45100</v>
+        <v>45092</v>
       </c>
       <c r="G5" t="n">
-        <v>2740.67</v>
+        <v>5096.52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>87929</v>
+        <v>92547</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sophia Ramos</t>
+          <t>Milena Silveira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,51 +610,51 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="G6" t="n">
-        <v>9819.389999999999</v>
+        <v>4935.17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>41461</v>
+        <v>26227</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maria Vitória Silveira</t>
+          <t>Dr. Arthur Duarte</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45090</v>
+        <v>45085</v>
       </c>
       <c r="G7" t="n">
-        <v>2873.79</v>
+        <v>7719.39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>49469</v>
+        <v>5948</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Kamilly Cardoso</t>
+          <t>Erick Santos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,31 +664,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45094</v>
+        <v>45104</v>
       </c>
       <c r="G8" t="n">
-        <v>8321.040000000001</v>
+        <v>7993.36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8134</v>
+        <v>12688</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Felipe Lopes</t>
+          <t>Natália Azevedo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -700,68 +700,68 @@
         <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45105</v>
       </c>
       <c r="G9" t="n">
-        <v>7893.41</v>
+        <v>4651.24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>83606</v>
+        <v>84340</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Henrique Rezende</t>
+          <t>Arthur Teixeira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45085</v>
+        <v>45105</v>
       </c>
       <c r="G10" t="n">
-        <v>9065.17</v>
+        <v>7154.05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>39133</v>
+        <v>91513</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Alice Fogaça</t>
+          <t>Bernardo Viana</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45082</v>
+        <v>45106</v>
       </c>
       <c r="G11" t="n">
-        <v>9581.559999999999</v>
+        <v>7952.64</v>
       </c>
     </row>
   </sheetData>
